--- a/case1_astn_220107/case1_astn_220107_v1.0_220109.xlsx
+++ b/case1_astn_220107/case1_astn_220107_v1.0_220109.xlsx
@@ -20,7 +20,7 @@
     <t>CASH FLOW</t>
   </si>
   <si>
-    <t>Written at: 2022.01.09 13:00:47</t>
+    <t>Written at: 2022.01.09 20:30:59</t>
   </si>
   <si>
     <t>case1_astn_220107/case1_astn_220107_v1.0_220109.xlsx</t>
